--- a/UdemMocha/UdemTestingMocha1.xlsx
+++ b/UdemMocha/UdemTestingMocha1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\UdemMocha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28DF8F0-B1F8-41C6-AF6F-59BB37200A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8972066-0C78-4B55-8449-E356B115A567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="1155" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="7" xr2:uid="{6BF6C525-4053-44CB-B6A0-CE57F2A19180}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{6BF6C525-4053-44CB-B6A0-CE57F2A19180}"/>
   </bookViews>
   <sheets>
     <sheet name="Getting going" sheetId="1" r:id="rId1"/>
-    <sheet name="Before and After " sheetId="2" r:id="rId2"/>
+    <sheet name="Hooks Before and After " sheetId="2" r:id="rId2"/>
     <sheet name="Context" sheetId="3" r:id="rId3"/>
     <sheet name="Chai" sheetId="4" r:id="rId4"/>
     <sheet name="Chai1 " sheetId="5" r:id="rId5"/>
@@ -2063,6 +2063,572 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1904</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>164204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>503844</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6B04D-23AC-4202-994F-0C59E715222A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6707504" y="8308079"/>
+          <a:ext cx="5988340" cy="1772893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219699" cy="1470146"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3785BC8D-2E50-41AC-A1AA-454C587CF5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11250930" y="14971395"/>
+          <a:ext cx="4219699" cy="1470146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a JavaScript test framework running on Node. js and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> browser. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> allows asynchronous testing, test coverage reports, and use of any assertion library. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a BDD / TDD assertion library for NodeJS and the browser that can be delightfully paired with any javascript testing framework</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7888730" cy="1125693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E141078C-7D64-46A5-A675-DD9BBEB0325E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="1106805"/>
+          <a:ext cx="7888730" cy="1125693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a JavaScript test framework running on Node. js and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>in the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> browser.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mocha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> allows asynchronous testing, test coverage reports, and use of any assertion library. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Chai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> is a BDD / TDD assertion library for NodeJS and the browser that can be delightfully </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>paired with any javascript testing framework</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>8296</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>136130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E17B83C-B319-4D81-AF2D-1A83144396D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11515725" y="26822400"/>
+          <a:ext cx="9828571" cy="8241905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>102565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>60389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3694A52-1E11-4E1A-88AC-65DA4707A756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="33944890"/>
+          <a:ext cx="8953500" cy="3396349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>34249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>558627</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E874AEE-B75E-49D8-847D-BF1B189B520A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13839824" y="8359099"/>
+          <a:ext cx="10493203" cy="2175251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9111,8 +9677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685253D4-592C-4B60-A5B2-D7D51097D2F2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9126,8 +9692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9314314-F451-4002-B86C-53713D2012A4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9156,7 +9722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28493860-6B71-4BC4-8909-0F70D24FE748}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -9171,7 +9737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD9E654-0031-42D1-A0BB-5C3D93104CA1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="T150" sqref="T150"/>
     </sheetView>
   </sheetViews>
@@ -9186,7 +9752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC887B-C316-421D-AC48-646E3B1CF302}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" workbookViewId="0">
+    <sheetView topLeftCell="B76" workbookViewId="0">
       <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
@@ -9201,7 +9767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37820AB7-BCCA-4E1D-921A-A4584D31F61D}">
   <dimension ref="T36"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" workbookViewId="0">
+    <sheetView topLeftCell="B37" workbookViewId="0">
       <selection activeCell="P95" sqref="P95"/>
     </sheetView>
   </sheetViews>
@@ -9222,7 +9788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B80B28-6C2E-423A-879A-0DAE939BCBAE}">
   <dimension ref="A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
